--- a/NatmiData/natmiOut_TPM/OldD7/LR-pairs_lrc2p/Fgf17-Fgfr4.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD7/LR-pairs_lrc2p/Fgf17-Fgfr4.xlsx
@@ -537,16 +537,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G2">
-        <v>0.1403416666666667</v>
+        <v>0.09982999999999999</v>
       </c>
       <c r="H2">
-        <v>0.421025</v>
+        <v>0.29949</v>
       </c>
       <c r="I2">
-        <v>0.1336217402674561</v>
+        <v>0.06953924013247029</v>
       </c>
       <c r="J2">
-        <v>0.1336217402674561</v>
+        <v>0.06953924013247029</v>
       </c>
       <c r="K2">
         <v>2</v>
@@ -555,28 +555,28 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="M2">
-        <v>0.4279076666666666</v>
+        <v>0.789222</v>
       </c>
       <c r="N2">
-        <v>1.283723</v>
+        <v>2.367666</v>
       </c>
       <c r="O2">
-        <v>0.0198304262462706</v>
+        <v>0.01341929863527565</v>
       </c>
       <c r="P2">
-        <v>0.0198304262462706</v>
+        <v>0.01341929863527565</v>
       </c>
       <c r="Q2">
-        <v>0.06005327511944444</v>
+        <v>0.07878803225999999</v>
       </c>
       <c r="R2">
-        <v>0.5404794760749999</v>
+        <v>0.7090922903399999</v>
       </c>
       <c r="S2">
-        <v>0.002649776065272115</v>
+        <v>0.000933167830207764</v>
       </c>
       <c r="T2">
-        <v>0.002649776065272115</v>
+        <v>0.000933167830207764</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -599,16 +599,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G3">
-        <v>0.1403416666666667</v>
+        <v>0.09982999999999999</v>
       </c>
       <c r="H3">
-        <v>0.421025</v>
+        <v>0.29949</v>
       </c>
       <c r="I3">
-        <v>0.1336217402674561</v>
+        <v>0.06953924013247029</v>
       </c>
       <c r="J3">
-        <v>0.1336217402674561</v>
+        <v>0.06953924013247029</v>
       </c>
       <c r="K3">
         <v>2</v>
@@ -623,22 +623,22 @@
         <v>0.890544</v>
       </c>
       <c r="O3">
-        <v>0.01375675835913107</v>
+        <v>0.005047365584441773</v>
       </c>
       <c r="P3">
-        <v>0.01375675835913107</v>
+        <v>0.005047365584441773</v>
       </c>
       <c r="Q3">
-        <v>0.04166014306666667</v>
+        <v>0.02963433584</v>
       </c>
       <c r="R3">
-        <v>0.3749412876</v>
+        <v>0.26670902256</v>
       </c>
       <c r="S3">
-        <v>0.001838201992385967</v>
+        <v>0.0003509899674128627</v>
       </c>
       <c r="T3">
-        <v>0.001838201992385967</v>
+        <v>0.0003509899674128627</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -661,16 +661,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G4">
-        <v>0.1403416666666667</v>
+        <v>0.09982999999999999</v>
       </c>
       <c r="H4">
-        <v>0.421025</v>
+        <v>0.29949</v>
       </c>
       <c r="I4">
-        <v>0.1336217402674561</v>
+        <v>0.06953924013247029</v>
       </c>
       <c r="J4">
-        <v>0.1336217402674561</v>
+        <v>0.06953924013247029</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -679,28 +679,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>20.78097133333333</v>
+        <v>57.61405833333333</v>
       </c>
       <c r="N4">
-        <v>62.342914</v>
+        <v>172.842175</v>
       </c>
       <c r="O4">
-        <v>0.9630477587879871</v>
+        <v>0.9796232927683105</v>
       </c>
       <c r="P4">
-        <v>0.9630477587879871</v>
+        <v>0.9796232927683105</v>
       </c>
       <c r="Q4">
-        <v>2.916436151872222</v>
+        <v>5.751611443416666</v>
       </c>
       <c r="R4">
-        <v>26.24792536685</v>
+        <v>51.76450299075</v>
       </c>
       <c r="S4">
-        <v>0.1286841174899241</v>
+        <v>0.06812225939517678</v>
       </c>
       <c r="T4">
-        <v>0.1286841174899241</v>
+        <v>0.06812225939517678</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -723,16 +723,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G5">
-        <v>0.1403416666666667</v>
+        <v>0.09982999999999999</v>
       </c>
       <c r="H5">
-        <v>0.421025</v>
+        <v>0.29949</v>
       </c>
       <c r="I5">
-        <v>0.1336217402674561</v>
+        <v>0.06953924013247029</v>
       </c>
       <c r="J5">
-        <v>0.1336217402674561</v>
+        <v>0.06953924013247029</v>
       </c>
       <c r="K5">
         <v>2</v>
@@ -741,28 +741,28 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="M5">
-        <v>0.07261233333333333</v>
+        <v>0.1123343333333333</v>
       </c>
       <c r="N5">
-        <v>0.217837</v>
+        <v>0.337003</v>
       </c>
       <c r="O5">
-        <v>0.003365056606611278</v>
+        <v>0.001910043011972043</v>
       </c>
       <c r="P5">
-        <v>0.003365056606611278</v>
+        <v>0.001910043011972043</v>
       </c>
       <c r="Q5">
-        <v>0.01019053588055556</v>
+        <v>0.01121433649666666</v>
       </c>
       <c r="R5">
-        <v>0.09171482292499999</v>
+        <v>0.10092902847</v>
       </c>
       <c r="S5">
-        <v>0.0004496447198738995</v>
+        <v>0.0001328229396728707</v>
       </c>
       <c r="T5">
-        <v>0.0004496447198738994</v>
+        <v>0.0001328229396728707</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -791,10 +791,10 @@
         <v>1.892098</v>
       </c>
       <c r="I6">
-        <v>0.600499798151115</v>
+        <v>0.4393303855760352</v>
       </c>
       <c r="J6">
-        <v>0.6004997981511151</v>
+        <v>0.4393303855760352</v>
       </c>
       <c r="K6">
         <v>2</v>
@@ -803,28 +803,28 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="M6">
-        <v>0.4279076666666666</v>
+        <v>0.789222</v>
       </c>
       <c r="N6">
-        <v>1.283723</v>
+        <v>2.367666</v>
       </c>
       <c r="O6">
-        <v>0.0198304262462706</v>
+        <v>0.01341929863527565</v>
       </c>
       <c r="P6">
-        <v>0.0198304262462706</v>
+        <v>0.01341929863527565</v>
       </c>
       <c r="Q6">
-        <v>0.2698810800948889</v>
+        <v>0.497761789252</v>
       </c>
       <c r="R6">
-        <v>2.428929720854</v>
+        <v>4.479856103268</v>
       </c>
       <c r="S6">
-        <v>0.01190816695813607</v>
+        <v>0.005895505643595613</v>
       </c>
       <c r="T6">
-        <v>0.01190816695813607</v>
+        <v>0.005895505643595613</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -853,10 +853,10 @@
         <v>1.892098</v>
       </c>
       <c r="I7">
-        <v>0.600499798151115</v>
+        <v>0.4393303855760352</v>
       </c>
       <c r="J7">
-        <v>0.6004997981511151</v>
+        <v>0.4393303855760352</v>
       </c>
       <c r="K7">
         <v>2</v>
@@ -871,10 +871,10 @@
         <v>0.890544</v>
       </c>
       <c r="O7">
-        <v>0.01375675835913107</v>
+        <v>0.005047365584441773</v>
       </c>
       <c r="P7">
-        <v>0.01375675835913107</v>
+        <v>0.005047365584441773</v>
       </c>
       <c r="Q7">
         <v>0.1872218357013334</v>
@@ -883,10 +883,10 @@
         <v>1.684996521312</v>
       </c>
       <c r="S7">
-        <v>0.00826093061787187</v>
+        <v>0.002217461068356014</v>
       </c>
       <c r="T7">
-        <v>0.00826093061787187</v>
+        <v>0.002217461068356014</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -915,10 +915,10 @@
         <v>1.892098</v>
       </c>
       <c r="I8">
-        <v>0.600499798151115</v>
+        <v>0.4393303855760352</v>
       </c>
       <c r="J8">
-        <v>0.6004997981511151</v>
+        <v>0.4393303855760352</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -927,28 +927,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>20.78097133333333</v>
+        <v>57.61405833333333</v>
       </c>
       <c r="N8">
-        <v>62.342914</v>
+        <v>172.842175</v>
       </c>
       <c r="O8">
-        <v>0.9630477587879871</v>
+        <v>0.9796232927683105</v>
       </c>
       <c r="P8">
-        <v>0.9630477587879871</v>
+        <v>0.9796232927683105</v>
       </c>
       <c r="Q8">
-        <v>13.10654476595245</v>
+        <v>36.33714818146112</v>
       </c>
       <c r="R8">
-        <v>117.958902893572</v>
+        <v>327.03433363315</v>
       </c>
       <c r="S8">
-        <v>0.57830998476207</v>
+        <v>0.4303782789311671</v>
       </c>
       <c r="T8">
-        <v>0.5783099847620701</v>
+        <v>0.4303782789311671</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -977,10 +977,10 @@
         <v>1.892098</v>
       </c>
       <c r="I9">
-        <v>0.600499798151115</v>
+        <v>0.4393303855760352</v>
       </c>
       <c r="J9">
-        <v>0.6004997981511151</v>
+        <v>0.4393303855760352</v>
       </c>
       <c r="K9">
         <v>2</v>
@@ -989,28 +989,28 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="M9">
-        <v>0.07261233333333333</v>
+        <v>0.1123343333333333</v>
       </c>
       <c r="N9">
-        <v>0.217837</v>
+        <v>0.337003</v>
       </c>
       <c r="O9">
-        <v>0.003365056606611278</v>
+        <v>0.001910043011972043</v>
       </c>
       <c r="P9">
-        <v>0.003365056606611278</v>
+        <v>0.001910043011972043</v>
       </c>
       <c r="Q9">
-        <v>0.04579655022511112</v>
+        <v>0.07084918914377777</v>
       </c>
       <c r="R9">
-        <v>0.4121689520260001</v>
+        <v>0.6376427022940001</v>
       </c>
       <c r="S9">
-        <v>0.002020715813037149</v>
+        <v>0.0008391399329164892</v>
       </c>
       <c r="T9">
-        <v>0.002020715813037149</v>
+        <v>0.0008391399329164893</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1027,22 +1027,22 @@
         <v>20</v>
       </c>
       <c r="E10">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F10">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G10">
-        <v>0.2792496666666667</v>
+        <v>0.705063</v>
       </c>
       <c r="H10">
-        <v>0.837749</v>
+        <v>2.115189</v>
       </c>
       <c r="I10">
-        <v>0.2658784615814289</v>
+        <v>0.4911303742914945</v>
       </c>
       <c r="J10">
-        <v>0.2658784615814289</v>
+        <v>0.4911303742914945</v>
       </c>
       <c r="K10">
         <v>2</v>
@@ -1051,28 +1051,28 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="M10">
-        <v>0.4279076666666666</v>
+        <v>0.789222</v>
       </c>
       <c r="N10">
-        <v>1.283723</v>
+        <v>2.367666</v>
       </c>
       <c r="O10">
-        <v>0.0198304262462706</v>
+        <v>0.01341929863527565</v>
       </c>
       <c r="P10">
-        <v>0.0198304262462706</v>
+        <v>0.01341929863527565</v>
       </c>
       <c r="Q10">
-        <v>0.1194930732807778</v>
+        <v>0.556451230986</v>
       </c>
       <c r="R10">
-        <v>1.075437659527</v>
+        <v>5.008061078873999</v>
       </c>
       <c r="S10">
-        <v>0.005272483222862417</v>
+        <v>0.006590625161472271</v>
       </c>
       <c r="T10">
-        <v>0.005272483222862417</v>
+        <v>0.006590625161472271</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1089,22 +1089,22 @@
         <v>21</v>
       </c>
       <c r="E11">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F11">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G11">
-        <v>0.2792496666666667</v>
+        <v>0.705063</v>
       </c>
       <c r="H11">
-        <v>0.837749</v>
+        <v>2.115189</v>
       </c>
       <c r="I11">
-        <v>0.2658784615814289</v>
+        <v>0.4911303742914945</v>
       </c>
       <c r="J11">
-        <v>0.2658784615814289</v>
+        <v>0.4911303742914945</v>
       </c>
       <c r="K11">
         <v>2</v>
@@ -1119,22 +1119,22 @@
         <v>0.890544</v>
       </c>
       <c r="O11">
-        <v>0.01375675835913107</v>
+        <v>0.005047365584441773</v>
       </c>
       <c r="P11">
-        <v>0.01375675835913107</v>
+        <v>0.005047365584441773</v>
       </c>
       <c r="Q11">
-        <v>0.08289470505066666</v>
+        <v>0.209296541424</v>
       </c>
       <c r="R11">
-        <v>0.746052345456</v>
+        <v>1.883668872816</v>
       </c>
       <c r="S11">
-        <v>0.003657625748873229</v>
+        <v>0.002478914548672896</v>
       </c>
       <c r="T11">
-        <v>0.003657625748873229</v>
+        <v>0.002478914548672896</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1151,22 +1151,22 @@
         <v>22</v>
       </c>
       <c r="E12">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F12">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G12">
-        <v>0.2792496666666667</v>
+        <v>0.705063</v>
       </c>
       <c r="H12">
-        <v>0.837749</v>
+        <v>2.115189</v>
       </c>
       <c r="I12">
-        <v>0.2658784615814289</v>
+        <v>0.4911303742914945</v>
       </c>
       <c r="J12">
-        <v>0.2658784615814289</v>
+        <v>0.4911303742914945</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1175,28 +1175,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>20.78097133333333</v>
+        <v>57.61405833333333</v>
       </c>
       <c r="N12">
-        <v>62.342914</v>
+        <v>172.842175</v>
       </c>
       <c r="O12">
-        <v>0.9630477587879871</v>
+        <v>0.9796232927683105</v>
       </c>
       <c r="P12">
-        <v>0.9630477587879871</v>
+        <v>0.9796232927683105</v>
       </c>
       <c r="Q12">
-        <v>5.803079317842889</v>
+        <v>40.621540810675</v>
       </c>
       <c r="R12">
-        <v>52.227713860586</v>
+        <v>365.593867296075</v>
       </c>
       <c r="S12">
-        <v>0.256053656535993</v>
+        <v>0.4811227544419667</v>
       </c>
       <c r="T12">
-        <v>0.256053656535993</v>
+        <v>0.4811227544419667</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1213,22 +1213,22 @@
         <v>25</v>
       </c>
       <c r="E13">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F13">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G13">
-        <v>0.2792496666666667</v>
+        <v>0.705063</v>
       </c>
       <c r="H13">
-        <v>0.837749</v>
+        <v>2.115189</v>
       </c>
       <c r="I13">
-        <v>0.2658784615814289</v>
+        <v>0.4911303742914945</v>
       </c>
       <c r="J13">
-        <v>0.2658784615814289</v>
+        <v>0.4911303742914945</v>
       </c>
       <c r="K13">
         <v>2</v>
@@ -1237,28 +1237,28 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="M13">
-        <v>0.07261233333333333</v>
+        <v>0.1123343333333333</v>
       </c>
       <c r="N13">
-        <v>0.217837</v>
+        <v>0.337003</v>
       </c>
       <c r="O13">
-        <v>0.003365056606611278</v>
+        <v>0.001910043011972043</v>
       </c>
       <c r="P13">
-        <v>0.003365056606611278</v>
+        <v>0.001910043011972043</v>
       </c>
       <c r="Q13">
-        <v>0.02027696987922222</v>
+        <v>0.07920278206299999</v>
       </c>
       <c r="R13">
-        <v>0.182492728913</v>
+        <v>0.712825038567</v>
       </c>
       <c r="S13">
-        <v>0.0008946960737002301</v>
+        <v>0.000938080139382683</v>
       </c>
       <c r="T13">
-        <v>0.0008946960737002301</v>
+        <v>0.0009380801393826831</v>
       </c>
     </row>
   </sheetData>
